--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="94">
   <si>
     <t>Service</t>
   </si>
@@ -64,9 +64,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>$473.23</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>ExMileage</t>
   </si>
   <si>
-    <t>EstTotal</t>
-  </si>
-  <si>
     <t>$16.00</t>
   </si>
   <si>
@@ -287,6 +281,21 @@
   </si>
   <si>
     <t>$2.88</t>
+  </si>
+  <si>
+    <t>AFTERHOURS(DELIVERY)</t>
+  </si>
+  <si>
+    <t>Est.Total</t>
+  </si>
+  <si>
+    <t>Del.Mileage</t>
+  </si>
+  <si>
+    <t>$28.00</t>
+  </si>
+  <si>
+    <t>$184.50</t>
   </si>
 </sst>
 </file>
@@ -348,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -369,6 +378,10 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -699,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,11 +726,12 @@
     <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
@@ -725,7 +739,7 @@
     <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -748,20 +762,25 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="6">
         <v>77598</v>
       </c>
@@ -772,28 +791,29 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
         <v>90670</v>
       </c>
@@ -804,28 +824,29 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="6">
         <v>98052</v>
       </c>
@@ -836,28 +857,29 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
         <v>98168</v>
       </c>
@@ -868,28 +890,29 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>90621</v>
       </c>
@@ -900,28 +923,29 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6">
         <v>98405</v>
       </c>
@@ -932,28 +956,29 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -964,30 +989,31 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>34232</v>
       </c>
@@ -998,30 +1024,31 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="7">
         <v>90019</v>
       </c>
@@ -1032,28 +1059,29 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="7">
         <v>90670</v>
       </c>
@@ -1064,28 +1092,29 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="7">
         <v>98052</v>
       </c>
@@ -1096,28 +1125,29 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="7">
         <v>98168</v>
       </c>
@@ -1128,28 +1158,29 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="7">
         <v>90621</v>
       </c>
@@ -1160,28 +1191,29 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="7">
         <v>98405</v>
       </c>
@@ -1192,28 +1224,29 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="7">
         <v>90019</v>
       </c>
@@ -1224,28 +1257,29 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7">
         <v>90670</v>
       </c>
@@ -1256,28 +1290,29 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="7">
         <v>98052</v>
       </c>
@@ -1288,28 +1323,29 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="7">
         <v>98168</v>
       </c>
@@ -1320,28 +1356,29 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="7">
         <v>90621</v>
       </c>
@@ -1352,28 +1389,29 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="7">
         <v>98405</v>
       </c>
@@ -1384,28 +1422,29 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="7">
         <v>32816</v>
       </c>
@@ -1416,28 +1455,29 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="7">
         <v>32816</v>
       </c>
@@ -1448,28 +1488,29 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7">
         <v>32816</v>
       </c>
@@ -1480,28 +1521,29 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7">
         <v>32816</v>
       </c>
@@ -1512,28 +1554,29 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7">
         <v>32816</v>
       </c>
@@ -1544,28 +1587,29 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7">
         <v>32816</v>
       </c>
@@ -1576,28 +1620,29 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7">
         <v>32816</v>
       </c>
@@ -1608,30 +1653,31 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7">
         <v>32816</v>
       </c>
@@ -1642,30 +1688,31 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
         <v>82</v>
       </c>
-      <c r="I29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" t="s">
-        <v>84</v>
-      </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7">
         <v>10001</v>
       </c>
@@ -1676,28 +1723,33 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7">
         <v>98934</v>
       </c>
@@ -1708,30 +1760,31 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
         <v>88</v>
       </c>
-      <c r="I31" t="s">
-        <v>90</v>
-      </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="4:4">

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="94">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="97">
   <si>
     <t>Service</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>$184.50</t>
+  </si>
+  <si>
+    <t>$284.70</t>
+  </si>
+  <si>
+    <t>$4.60</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_NewRateChng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="99">
   <si>
     <t>Service</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>$72.97</t>
+  </si>
+  <si>
+    <t>$3.97</t>
   </si>
 </sst>
 </file>
@@ -869,21 +875,21 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="13"/>
